--- a/biology/Médecine/Musée_national_de_la_maladie_de_Hansen/Musée_national_de_la_maladie_de_Hansen.xlsx
+++ b/biology/Médecine/Musée_national_de_la_maladie_de_Hansen/Musée_national_de_la_maladie_de_Hansen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_national_de_la_maladie_de_Hansen</t>
+          <t>Musée_national_de_la_maladie_de_Hansen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée national de la maladie de Hansen (国立ハンセン病資料館, Kokuritsu Hansen-byō Shiryōkan?) se trouve dans la ville de Higashimurayama, préfecture de Tokyo au Japon. Il est consacré à l'information sur la maladie de Hansen (lèpre) et vise à éliminer les traitements discriminatoires vis-à-vis des personnes atteintes de la maladie. Fondé en 1993, il porte jusqu'en 2007 le nom de « Musée Mémorial de la maladie de Hansen de Son Altesse impériale le Prince Takamatsu ».
-Le but du musée, situé à côté de l'un des sanatoriums encore ouverts du Japon, est de[1] :
+Le but du musée, situé à côté de l'un des sanatoriums encore ouverts du Japon, est de :
 promouvoir la sensibilisation à la lèpre ;
 représenter et préserver l'histoire de la lèpre au Japon ;
 montrer ce que les personnes touchées par la lèpre ont réalisé ;
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_national_de_la_maladie_de_Hansen</t>
+          <t>Musée_national_de_la_maladie_de_Hansen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,9 +529,11 @@
           <t>Tama-Zenshoen</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée est adjacent au sanatorium Tama Zenshōen (多摩全生園, Tama Sanatorium for Hansen's Disease?), fondé en 1909 pour contraindre à l'isolement les personnes atteintes de la maladie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée est adjacent au sanatorium Tama Zenshōen (多摩全生園, Tama Sanatorium for Hansen's Disease?), fondé en 1909 pour contraindre à l'isolement les personnes atteintes de la maladie.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_national_de_la_maladie_de_Hansen</t>
+          <t>Musée_national_de_la_maladie_de_Hansen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(ja) Site du musée)
 </t>
